--- a/datas/shared/HouseReturn.xlsx
+++ b/datas/shared/HouseReturn.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3680" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -167,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -208,6 +208,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -435,12 +448,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1161,13 +1177,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1178,13 +1194,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
+        <v>180</v>
+      </c>
+      <c r="D4" s="3">
+        <v>180</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1195,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="C5" s="1">
-        <v>300</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300</v>
+        <v>360</v>
+      </c>
+      <c r="D5" s="3">
+        <v>360</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1212,13 +1228,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="C6" s="1">
-        <v>600</v>
-      </c>
-      <c r="D6" s="1">
-        <v>600</v>
+        <v>540</v>
+      </c>
+      <c r="D6" s="3">
+        <v>540</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1229,13 +1245,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1800</v>
+        <v>960</v>
       </c>
       <c r="C7" s="1">
-        <v>1800</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1800</v>
+        <v>720</v>
+      </c>
+      <c r="D7" s="3">
+        <v>720</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1246,13 +1262,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="C8" s="1">
-        <v>3600</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3600</v>
+        <v>900</v>
+      </c>
+      <c r="D8" s="3">
+        <v>900</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1263,13 +1279,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>5400</v>
+        <v>1440</v>
       </c>
       <c r="C9" s="1">
-        <v>5400</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5400</v>
+        <v>1080</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1080</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1280,13 +1296,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>7200</v>
+        <v>1872</v>
       </c>
       <c r="C10" s="1">
-        <v>7200</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7200</v>
+        <v>1404</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1404</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1297,13 +1313,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9000</v>
+        <v>4608</v>
       </c>
       <c r="C11" s="1">
-        <v>9000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9000</v>
+        <v>3456</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3456</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1314,13 +1330,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10800</v>
+        <v>8352</v>
       </c>
       <c r="C12" s="1">
-        <v>10800</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10800</v>
+        <v>6264</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6264</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1331,13 +1347,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>12600</v>
+        <v>21197</v>
       </c>
       <c r="C13" s="1">
-        <v>12600</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12600</v>
+        <v>15898</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15898</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1348,13 +1364,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>14400</v>
+        <v>31104</v>
       </c>
       <c r="C14" s="1">
-        <v>14400</v>
-      </c>
-      <c r="D14" s="1">
-        <v>14400</v>
+        <v>23328</v>
+      </c>
+      <c r="D14" s="3">
+        <v>23328</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1365,13 +1381,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>16200</v>
+        <v>43316</v>
       </c>
       <c r="C15" s="1">
-        <v>16200</v>
-      </c>
-      <c r="D15" s="1">
-        <v>16200</v>
+        <v>32487</v>
+      </c>
+      <c r="D15" s="3">
+        <v>32487</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1382,13 +1398,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>18000</v>
+        <v>58061</v>
       </c>
       <c r="C16" s="1">
-        <v>18000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>18000</v>
+        <v>43546</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43546</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1399,13 +1415,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>24000</v>
+        <v>67572</v>
       </c>
       <c r="C17" s="1">
-        <v>24000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>24000</v>
+        <v>50679</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50679</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1416,13 +1432,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>30000</v>
+        <v>104096</v>
       </c>
       <c r="C18" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>30000</v>
+        <v>78072</v>
+      </c>
+      <c r="D18" s="3">
+        <v>78072</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1433,13 +1449,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>36000</v>
+        <v>123760</v>
       </c>
       <c r="C19" s="1">
-        <v>36000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>36000</v>
+        <v>92820</v>
+      </c>
+      <c r="D19" s="3">
+        <v>92820</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1450,13 +1466,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>42000</v>
+        <v>143744</v>
       </c>
       <c r="C20" s="1">
-        <v>42000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42000</v>
+        <v>107808</v>
+      </c>
+      <c r="D20" s="3">
+        <v>107808</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1467,13 +1483,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>48000</v>
+        <v>162336</v>
       </c>
       <c r="C21" s="1">
-        <v>48000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>48000</v>
+        <v>121752</v>
+      </c>
+      <c r="D21" s="3">
+        <v>121752</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1484,15 +1500,355 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>90000</v>
+        <v>177824</v>
       </c>
       <c r="C22" s="1">
-        <v>90000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>90000</v>
+        <v>133368</v>
+      </c>
+      <c r="D22" s="3">
+        <v>133368</v>
       </c>
       <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>314295</v>
+      </c>
+      <c r="C23" s="1">
+        <v>235721</v>
+      </c>
+      <c r="D23" s="3">
+        <v>235721</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>340096</v>
+      </c>
+      <c r="C24" s="1">
+        <v>255072</v>
+      </c>
+      <c r="D24" s="3">
+        <v>255072</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>359962</v>
+      </c>
+      <c r="C25" s="1">
+        <v>269972</v>
+      </c>
+      <c r="D25" s="3">
+        <v>269972</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>413018</v>
+      </c>
+      <c r="C26" s="1">
+        <v>309764</v>
+      </c>
+      <c r="D26" s="3">
+        <v>309764</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>463664</v>
+      </c>
+      <c r="C27" s="1">
+        <v>347748</v>
+      </c>
+      <c r="D27" s="3">
+        <v>347748</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>859610</v>
+      </c>
+      <c r="C28" s="1">
+        <v>644708</v>
+      </c>
+      <c r="D28" s="3">
+        <v>644708</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>962605</v>
+      </c>
+      <c r="C29" s="1">
+        <v>721954</v>
+      </c>
+      <c r="D29" s="3">
+        <v>721954</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1065613</v>
+      </c>
+      <c r="C30" s="1">
+        <v>799210</v>
+      </c>
+      <c r="D30" s="3">
+        <v>799210</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1167709</v>
+      </c>
+      <c r="C31" s="1">
+        <v>875782</v>
+      </c>
+      <c r="D31" s="3">
+        <v>875782</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1267968</v>
+      </c>
+      <c r="C32" s="1">
+        <v>950976</v>
+      </c>
+      <c r="D32" s="3">
+        <v>950976</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2183028</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1637271</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1637271</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2383642</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1787732</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1787732</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2588042</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1941032</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1941032</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2795610</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2096708</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2096708</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3005728</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2254296</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2254296</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4836224</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3627168</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3627168</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5220432</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3915324</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3915324</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5616512</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4212384</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4212384</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6024192</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4518144</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4518144</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8984000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6738000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6738000</v>
+      </c>
+      <c r="E42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1510,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1560,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -1577,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -1594,16 +1950,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1">
-        <v>180</v>
+        <v>511</v>
       </c>
       <c r="D5" s="1">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -1611,16 +1967,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1">
-        <v>360</v>
+        <v>765</v>
       </c>
       <c r="D6" s="1">
-        <v>360</v>
+        <v>459</v>
       </c>
       <c r="E6" s="1">
-        <v>360</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -1628,16 +1984,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1080</v>
+        <v>409</v>
       </c>
       <c r="C7" s="1">
-        <v>1080</v>
+        <v>1021</v>
       </c>
       <c r="D7" s="1">
-        <v>1080</v>
+        <v>612</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -1645,16 +2001,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2160</v>
+        <v>510</v>
       </c>
       <c r="C8" s="1">
-        <v>2160</v>
+        <v>1275</v>
       </c>
       <c r="D8" s="1">
-        <v>2160</v>
+        <v>765</v>
       </c>
       <c r="E8" s="1">
-        <v>1200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -1662,16 +2018,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3240</v>
+        <v>612</v>
       </c>
       <c r="C9" s="1">
-        <v>3240</v>
+        <v>1530</v>
       </c>
       <c r="D9" s="1">
-        <v>3240</v>
+        <v>918</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -1679,16 +2035,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4320</v>
+        <v>796</v>
       </c>
       <c r="C10" s="1">
-        <v>4320</v>
+        <v>1990</v>
       </c>
       <c r="D10" s="1">
-        <v>4320</v>
+        <v>1194</v>
       </c>
       <c r="E10" s="1">
-        <v>2400</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -1696,16 +2052,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>5400</v>
+        <v>1959</v>
       </c>
       <c r="C11" s="1">
-        <v>5400</v>
+        <v>4896</v>
       </c>
       <c r="D11" s="1">
-        <v>5400</v>
+        <v>2938</v>
       </c>
       <c r="E11" s="1">
-        <v>3000</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -1713,16 +2069,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>6480</v>
+        <v>3550</v>
       </c>
       <c r="C12" s="1">
-        <v>6480</v>
+        <v>8874</v>
       </c>
       <c r="D12" s="1">
-        <v>6480</v>
+        <v>5325</v>
       </c>
       <c r="E12" s="1">
-        <v>3600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -1730,16 +2086,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>7560</v>
+        <v>9009</v>
       </c>
       <c r="C13" s="1">
-        <v>7560</v>
+        <v>22522</v>
       </c>
       <c r="D13" s="1">
-        <v>7560</v>
+        <v>13513</v>
       </c>
       <c r="E13" s="1">
-        <v>4200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -1747,16 +2103,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>8640</v>
+        <v>13220</v>
       </c>
       <c r="C14" s="1">
-        <v>8640</v>
+        <v>33048</v>
       </c>
       <c r="D14" s="1">
-        <v>8640</v>
+        <v>19829</v>
       </c>
       <c r="E14" s="1">
-        <v>4800</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -1764,16 +2120,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>9720</v>
+        <v>18409</v>
       </c>
       <c r="C15" s="1">
-        <v>9720</v>
+        <v>46023</v>
       </c>
       <c r="D15" s="1">
-        <v>9720</v>
+        <v>27614</v>
       </c>
       <c r="E15" s="1">
-        <v>5400</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -1781,16 +2137,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>10800</v>
+        <v>24676</v>
       </c>
       <c r="C16" s="1">
-        <v>10800</v>
+        <v>61690</v>
       </c>
       <c r="D16" s="1">
-        <v>10800</v>
+        <v>37014</v>
       </c>
       <c r="E16" s="1">
-        <v>6000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -1798,16 +2154,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>14400</v>
+        <v>32118</v>
       </c>
       <c r="C17" s="1">
-        <v>14400</v>
+        <v>80295</v>
       </c>
       <c r="D17" s="1">
-        <v>14400</v>
+        <v>48177</v>
       </c>
       <c r="E17" s="1">
-        <v>6600</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -1815,16 +2171,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>18000</v>
+        <v>47041</v>
       </c>
       <c r="C18" s="1">
-        <v>18000</v>
+        <v>117603</v>
       </c>
       <c r="D18" s="1">
-        <v>18000</v>
+        <v>70562</v>
       </c>
       <c r="E18" s="1">
-        <v>7200</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -1832,16 +2188,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>21600</v>
+        <v>57648</v>
       </c>
       <c r="C19" s="1">
-        <v>21600</v>
+        <v>144120</v>
       </c>
       <c r="D19" s="1">
-        <v>21600</v>
+        <v>86472</v>
       </c>
       <c r="E19" s="1">
-        <v>7800</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -1849,16 +2205,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>25200</v>
+        <v>69092</v>
       </c>
       <c r="C20" s="1">
-        <v>25200</v>
+        <v>172728</v>
       </c>
       <c r="D20" s="1">
-        <v>25200</v>
+        <v>103637</v>
       </c>
       <c r="E20" s="1">
-        <v>8400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -1866,16 +2222,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>28800</v>
+        <v>80493</v>
       </c>
       <c r="C21" s="1">
-        <v>28800</v>
+        <v>201233</v>
       </c>
       <c r="D21" s="1">
-        <v>28800</v>
+        <v>120740</v>
       </c>
       <c r="E21" s="1">
-        <v>9000</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -1883,16 +2239,356 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>54000</v>
+        <v>90976</v>
       </c>
       <c r="C22" s="1">
-        <v>54000</v>
+        <v>227438</v>
       </c>
       <c r="D22" s="1">
-        <v>54000</v>
+        <v>136463</v>
       </c>
       <c r="E22" s="1">
-        <v>9600</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>153126</v>
+      </c>
+      <c r="C23" s="1">
+        <v>382813</v>
+      </c>
+      <c r="D23" s="1">
+        <v>229688</v>
+      </c>
+      <c r="E23" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>168341</v>
+      </c>
+      <c r="C24" s="1">
+        <v>420852</v>
+      </c>
+      <c r="D24" s="1">
+        <v>252512</v>
+      </c>
+      <c r="E24" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>180984</v>
+      </c>
+      <c r="C25" s="1">
+        <v>452460</v>
+      </c>
+      <c r="D25" s="1">
+        <v>271476</v>
+      </c>
+      <c r="E25" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>207533</v>
+      </c>
+      <c r="C26" s="1">
+        <v>518832</v>
+      </c>
+      <c r="D26" s="1">
+        <v>311299</v>
+      </c>
+      <c r="E26" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>232708</v>
+      </c>
+      <c r="C27" s="1">
+        <v>581769</v>
+      </c>
+      <c r="D27" s="1">
+        <v>349061</v>
+      </c>
+      <c r="E27" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>404135</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1010336</v>
+      </c>
+      <c r="D28" s="1">
+        <v>606202</v>
+      </c>
+      <c r="E28" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>450408</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1126018</v>
+      </c>
+      <c r="D29" s="1">
+        <v>675611</v>
+      </c>
+      <c r="E29" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>495886</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1239714</v>
+      </c>
+      <c r="D30" s="1">
+        <v>743829</v>
+      </c>
+      <c r="E30" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>540027</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1350066</v>
+      </c>
+      <c r="D31" s="1">
+        <v>810040</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>582287</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1455716</v>
+      </c>
+      <c r="D32" s="1">
+        <v>873430</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>969587</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2423967</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1454380</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1051848</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2629620</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1577772</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1134168</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2835420</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1701252</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1216135</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3040336</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1824202</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1297335</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3243336</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1946002</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2065196</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5162988</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3097793</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2216234</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5540584</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3324351</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2370018</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5925044</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3555027</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2526282</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6315704</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3789423</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3761001</v>
+      </c>
+      <c r="C42" s="1">
+        <v>9402501</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5641501</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1959,13 +2655,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -1976,16 +2672,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1">
-        <v>70</v>
-      </c>
-      <c r="D4" s="1">
-        <v>70</v>
+        <v>108</v>
+      </c>
+      <c r="D4" s="3">
+        <v>216</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -1993,16 +2689,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>210</v>
+        <v>432</v>
       </c>
       <c r="C5" s="1">
-        <v>210</v>
-      </c>
-      <c r="D5" s="1">
-        <v>210</v>
+        <v>216</v>
+      </c>
+      <c r="D5" s="3">
+        <v>432</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2010,16 +2706,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>420</v>
+        <v>648</v>
       </c>
       <c r="C6" s="1">
-        <v>420</v>
-      </c>
-      <c r="D6" s="1">
-        <v>420</v>
+        <v>324</v>
+      </c>
+      <c r="D6" s="3">
+        <v>648</v>
       </c>
       <c r="E6" s="1">
-        <v>360</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2027,16 +2723,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1260</v>
+        <v>864</v>
       </c>
       <c r="C7" s="1">
-        <v>1260</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1260</v>
+        <v>432</v>
+      </c>
+      <c r="D7" s="3">
+        <v>864</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2044,16 +2740,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2520</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="1">
-        <v>2520</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2520</v>
+        <v>540</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1080</v>
       </c>
       <c r="E8" s="1">
-        <v>1200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2061,16 +2757,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3780</v>
+        <v>1296</v>
       </c>
       <c r="C9" s="1">
-        <v>3780</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3780</v>
+        <v>648</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1296</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2078,16 +2774,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>5040</v>
+        <v>1685</v>
       </c>
       <c r="C10" s="1">
-        <v>5040</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5040</v>
+        <v>843</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1685</v>
       </c>
       <c r="E10" s="1">
-        <v>2400</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -2095,16 +2791,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6299.9999999999991</v>
+        <v>4148</v>
       </c>
       <c r="C11" s="1">
-        <v>6299.9999999999991</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6299.9999999999991</v>
+        <v>2074</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4148</v>
       </c>
       <c r="E11" s="1">
-        <v>3000</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -2112,16 +2808,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>7560</v>
+        <v>7517</v>
       </c>
       <c r="C12" s="1">
-        <v>7560</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7560</v>
+        <v>3759</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7517</v>
       </c>
       <c r="E12" s="1">
-        <v>3600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -2129,16 +2825,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>8820</v>
+        <v>19078</v>
       </c>
       <c r="C13" s="1">
-        <v>8820</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8820</v>
+        <v>9539</v>
+      </c>
+      <c r="D13" s="3">
+        <v>19078</v>
       </c>
       <c r="E13" s="1">
-        <v>4200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -2146,16 +2842,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>10080</v>
+        <v>27994</v>
       </c>
       <c r="C14" s="1">
-        <v>10080</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10080</v>
+        <v>13997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>27994</v>
       </c>
       <c r="E14" s="1">
-        <v>4800</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -2163,16 +2859,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>11340</v>
+        <v>38984</v>
       </c>
       <c r="C15" s="1">
-        <v>11340</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11340</v>
+        <v>19492</v>
+      </c>
+      <c r="D15" s="3">
+        <v>38984</v>
       </c>
       <c r="E15" s="1">
-        <v>5400</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -2180,16 +2876,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>12599.999999999998</v>
+        <v>52255</v>
       </c>
       <c r="C16" s="1">
-        <v>12599.999999999998</v>
-      </c>
-      <c r="D16" s="1">
-        <v>12599.999999999998</v>
+        <v>26128</v>
+      </c>
+      <c r="D16" s="3">
+        <v>52255</v>
       </c>
       <c r="E16" s="1">
-        <v>6000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -2197,16 +2893,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>16800</v>
+        <v>68015</v>
       </c>
       <c r="C17" s="1">
-        <v>16800</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16800</v>
+        <v>34008</v>
+      </c>
+      <c r="D17" s="3">
+        <v>68015</v>
       </c>
       <c r="E17" s="1">
-        <v>6600</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -2214,16 +2910,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>21000</v>
+        <v>100087</v>
       </c>
       <c r="C18" s="1">
-        <v>21000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>21000</v>
+        <v>50044</v>
+      </c>
+      <c r="D18" s="3">
+        <v>100087</v>
       </c>
       <c r="E18" s="1">
-        <v>7200</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -2231,16 +2927,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>25199.999999999996</v>
+        <v>122784</v>
       </c>
       <c r="C19" s="1">
-        <v>25199.999999999996</v>
-      </c>
-      <c r="D19" s="1">
-        <v>25199.999999999996</v>
+        <v>61392</v>
+      </c>
+      <c r="D19" s="3">
+        <v>122784</v>
       </c>
       <c r="E19" s="1">
-        <v>7800</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -2248,16 +2944,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>29400</v>
+        <v>147370</v>
       </c>
       <c r="C20" s="1">
-        <v>29400</v>
-      </c>
-      <c r="D20" s="1">
-        <v>29400</v>
+        <v>73685</v>
+      </c>
+      <c r="D20" s="3">
+        <v>147370</v>
       </c>
       <c r="E20" s="1">
-        <v>8400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -2265,16 +2961,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>33600</v>
+        <v>172103</v>
       </c>
       <c r="C21" s="1">
-        <v>33600</v>
-      </c>
-      <c r="D21" s="1">
-        <v>33600</v>
+        <v>86052</v>
+      </c>
+      <c r="D21" s="3">
+        <v>172103</v>
       </c>
       <c r="E21" s="1">
-        <v>9000</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -2282,16 +2978,356 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>63000</v>
+        <v>195242</v>
       </c>
       <c r="C22" s="1">
-        <v>63000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>63000</v>
+        <v>97621</v>
+      </c>
+      <c r="D22" s="3">
+        <v>195242</v>
       </c>
       <c r="E22" s="1">
-        <v>9600</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>328265</v>
+      </c>
+      <c r="C23" s="1">
+        <v>164133</v>
+      </c>
+      <c r="D23" s="3">
+        <v>328265</v>
+      </c>
+      <c r="E23" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>362487</v>
+      </c>
+      <c r="C24" s="1">
+        <v>181244</v>
+      </c>
+      <c r="D24" s="3">
+        <v>362487</v>
+      </c>
+      <c r="E24" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>391966</v>
+      </c>
+      <c r="C25" s="1">
+        <v>195983</v>
+      </c>
+      <c r="D25" s="3">
+        <v>391966</v>
+      </c>
+      <c r="E25" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>451716</v>
+      </c>
+      <c r="C26" s="1">
+        <v>225858</v>
+      </c>
+      <c r="D26" s="3">
+        <v>451716</v>
+      </c>
+      <c r="E26" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>509498</v>
+      </c>
+      <c r="C27" s="1">
+        <v>254749</v>
+      </c>
+      <c r="D27" s="3">
+        <v>509498</v>
+      </c>
+      <c r="E27" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>878049</v>
+      </c>
+      <c r="C28" s="1">
+        <v>439025</v>
+      </c>
+      <c r="D28" s="3">
+        <v>878049</v>
+      </c>
+      <c r="E28" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>982745</v>
+      </c>
+      <c r="C29" s="1">
+        <v>491373</v>
+      </c>
+      <c r="D29" s="3">
+        <v>982745</v>
+      </c>
+      <c r="E29" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1087052</v>
+      </c>
+      <c r="C30" s="1">
+        <v>543526</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1087052</v>
+      </c>
+      <c r="E30" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1189938</v>
+      </c>
+      <c r="C31" s="1">
+        <v>594969</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1189938</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1290372</v>
+      </c>
+      <c r="C32" s="1">
+        <v>645186</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1290372</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2123125</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1061563</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2123125</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2311678</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1155839</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2311678</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2502238</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1251119</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2502238</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2694049</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1347025</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2694049</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2886356</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1443178</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2886356</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4535002</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2267501</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4535002</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4879789</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2439895</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4879789</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5232861</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2616431</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5232861</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5593773</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2796887</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5593773</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8238000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4119000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8238000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -2308,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2358,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1">
         <v>10</v>
@@ -2375,16 +3411,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1">
-        <v>80</v>
+        <v>228</v>
+      </c>
+      <c r="C4" s="3">
+        <v>228</v>
       </c>
       <c r="D4" s="1">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2392,16 +3428,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>240</v>
-      </c>
-      <c r="C5" s="1">
-        <v>240</v>
+        <v>456</v>
+      </c>
+      <c r="C5" s="3">
+        <v>456</v>
       </c>
       <c r="D5" s="1">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2409,16 +3445,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>480</v>
-      </c>
-      <c r="C6" s="1">
-        <v>480</v>
+        <v>684</v>
+      </c>
+      <c r="C6" s="3">
+        <v>684</v>
       </c>
       <c r="D6" s="1">
-        <v>480</v>
+        <v>342</v>
       </c>
       <c r="E6" s="1">
-        <v>360</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2426,16 +3462,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1440</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1440</v>
+        <v>912</v>
+      </c>
+      <c r="C7" s="3">
+        <v>912</v>
       </c>
       <c r="D7" s="1">
-        <v>1440</v>
+        <v>456</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2443,16 +3479,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2880</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2880</v>
+        <v>1140</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1140</v>
       </c>
       <c r="D8" s="1">
-        <v>2880</v>
+        <v>570</v>
       </c>
       <c r="E8" s="1">
-        <v>1200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2460,16 +3496,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>4320</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4320</v>
+        <v>1368</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1368</v>
       </c>
       <c r="D9" s="1">
-        <v>4320</v>
+        <v>684</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2477,16 +3513,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>5760</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5760</v>
+        <v>1779</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1779</v>
       </c>
       <c r="D10" s="1">
-        <v>5760</v>
+        <v>890</v>
       </c>
       <c r="E10" s="1">
-        <v>2400</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -2494,16 +3530,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>7200</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7200</v>
+        <v>4378</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4378</v>
       </c>
       <c r="D11" s="1">
-        <v>7200</v>
+        <v>2189</v>
       </c>
       <c r="E11" s="1">
-        <v>3000</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -2511,16 +3547,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>8640</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8640</v>
+        <v>7935</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7935</v>
       </c>
       <c r="D12" s="1">
-        <v>8640</v>
+        <v>3968</v>
       </c>
       <c r="E12" s="1">
-        <v>3600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -2528,16 +3564,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>10080</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10080</v>
+        <v>20137</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20137</v>
       </c>
       <c r="D13" s="1">
-        <v>10080</v>
+        <v>10069</v>
       </c>
       <c r="E13" s="1">
-        <v>4200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -2545,16 +3581,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>11520</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11520</v>
+        <v>29549</v>
+      </c>
+      <c r="C14" s="3">
+        <v>29549</v>
       </c>
       <c r="D14" s="1">
-        <v>11520</v>
+        <v>14775</v>
       </c>
       <c r="E14" s="1">
-        <v>4800</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -2562,16 +3598,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>12960</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12960</v>
+        <v>41150</v>
+      </c>
+      <c r="C15" s="3">
+        <v>41150</v>
       </c>
       <c r="D15" s="1">
-        <v>12960</v>
+        <v>20575</v>
       </c>
       <c r="E15" s="1">
-        <v>5400</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -2579,16 +3615,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>14400</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14400</v>
+        <v>55158</v>
+      </c>
+      <c r="C16" s="3">
+        <v>55158</v>
       </c>
       <c r="D16" s="1">
-        <v>14400</v>
+        <v>27579</v>
       </c>
       <c r="E16" s="1">
-        <v>6000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -2596,16 +3632,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>19200</v>
-      </c>
-      <c r="C17" s="1">
-        <v>19200</v>
+        <v>71793</v>
+      </c>
+      <c r="C17" s="3">
+        <v>71793</v>
       </c>
       <c r="D17" s="1">
-        <v>19200</v>
+        <v>35897</v>
       </c>
       <c r="E17" s="1">
-        <v>6600</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -2613,16 +3649,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>24000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>24000</v>
+        <v>106092</v>
+      </c>
+      <c r="C18" s="3">
+        <v>106092</v>
       </c>
       <c r="D18" s="1">
-        <v>24000</v>
+        <v>53046</v>
       </c>
       <c r="E18" s="1">
-        <v>7200</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -2630,16 +3666,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>28800</v>
-      </c>
-      <c r="C19" s="1">
-        <v>28800</v>
+        <v>130272</v>
+      </c>
+      <c r="C19" s="3">
+        <v>130272</v>
       </c>
       <c r="D19" s="1">
-        <v>28800</v>
+        <v>65136</v>
       </c>
       <c r="E19" s="1">
-        <v>7800</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -2647,16 +3683,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>33600</v>
-      </c>
-      <c r="C20" s="1">
-        <v>33600</v>
+        <v>156557</v>
+      </c>
+      <c r="C20" s="3">
+        <v>156557</v>
       </c>
       <c r="D20" s="1">
-        <v>33600</v>
+        <v>78279</v>
       </c>
       <c r="E20" s="1">
-        <v>8400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -2664,16 +3700,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>38400</v>
-      </c>
-      <c r="C21" s="1">
-        <v>38400</v>
+        <v>183220</v>
+      </c>
+      <c r="C21" s="3">
+        <v>183220</v>
       </c>
       <c r="D21" s="1">
-        <v>38400</v>
+        <v>91610</v>
       </c>
       <c r="E21" s="1">
-        <v>9000</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -2681,16 +3717,356 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>72000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>72000</v>
+        <v>208533</v>
+      </c>
+      <c r="C22" s="3">
+        <v>208533</v>
       </c>
       <c r="D22" s="1">
-        <v>72000</v>
+        <v>104267</v>
       </c>
       <c r="E22" s="1">
-        <v>9600</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>350280</v>
+      </c>
+      <c r="C23" s="3">
+        <v>350280</v>
+      </c>
+      <c r="D23" s="1">
+        <v>175140</v>
+      </c>
+      <c r="E23" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>388292</v>
+      </c>
+      <c r="C24" s="3">
+        <v>388292</v>
+      </c>
+      <c r="D24" s="1">
+        <v>194146</v>
+      </c>
+      <c r="E24" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>421964</v>
+      </c>
+      <c r="C25" s="3">
+        <v>421964</v>
+      </c>
+      <c r="D25" s="1">
+        <v>210982</v>
+      </c>
+      <c r="E25" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>488367</v>
+      </c>
+      <c r="C26" s="3">
+        <v>488367</v>
+      </c>
+      <c r="D26" s="1">
+        <v>244184</v>
+      </c>
+      <c r="E26" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>553581</v>
+      </c>
+      <c r="C27" s="3">
+        <v>553581</v>
+      </c>
+      <c r="D27" s="1">
+        <v>276791</v>
+      </c>
+      <c r="E27" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>947830</v>
+      </c>
+      <c r="C28" s="3">
+        <v>947830</v>
+      </c>
+      <c r="D28" s="1">
+        <v>473915</v>
+      </c>
+      <c r="E28" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1064675</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1064675</v>
+      </c>
+      <c r="D29" s="1">
+        <v>532338</v>
+      </c>
+      <c r="E29" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1182333</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1182333</v>
+      </c>
+      <c r="D30" s="1">
+        <v>591167</v>
+      </c>
+      <c r="E30" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1299824</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1299824</v>
+      </c>
+      <c r="D31" s="1">
+        <v>649912</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1416170</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1416170</v>
+      </c>
+      <c r="D32" s="1">
+        <v>708085</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2307076</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2307076</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1153538</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2519660</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2519660</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1259830</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2736140</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2736140</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1368070</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2955830</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2955830</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1477915</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3178042</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3178042</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1589021</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4939613</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4939613</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2469807</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5327111</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5327111</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2663556</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5725687</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5725687</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2862844</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6134983</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6134983</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3067492</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8942000</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8942000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4471000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -2707,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2737,359 +4113,682 @@
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1">
-        <v>450</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1">
-        <v>450</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="C4" s="1">
-        <v>900</v>
+        <v>288</v>
       </c>
       <c r="D4" s="1">
-        <v>900</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="C5" s="1">
-        <v>2700</v>
+        <v>432</v>
       </c>
       <c r="D5" s="1">
-        <v>2700</v>
+        <v>288</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>540</v>
+        <v>960</v>
       </c>
       <c r="C6" s="1">
-        <v>5400</v>
+        <v>576</v>
       </c>
       <c r="D6" s="1">
-        <v>5400</v>
+        <v>384</v>
       </c>
       <c r="E6" s="1">
-        <v>360</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1620</v>
+        <v>1200</v>
       </c>
       <c r="C7" s="1">
-        <v>16200</v>
+        <v>720</v>
       </c>
       <c r="D7" s="1">
-        <v>16200</v>
+        <v>480</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>3240</v>
+        <v>1440</v>
       </c>
       <c r="C8" s="1">
-        <v>32400</v>
+        <v>864</v>
       </c>
       <c r="D8" s="1">
-        <v>32400</v>
+        <v>576</v>
       </c>
       <c r="E8" s="1">
-        <v>1200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>4860</v>
+        <v>1872</v>
       </c>
       <c r="C9" s="1">
-        <v>48600</v>
+        <v>1124</v>
       </c>
       <c r="D9" s="1">
-        <v>48600</v>
+        <v>749</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>6480</v>
+        <v>4608</v>
       </c>
       <c r="C10" s="1">
-        <v>64800</v>
+        <v>2765</v>
       </c>
       <c r="D10" s="1">
-        <v>64800</v>
+        <v>1844</v>
       </c>
       <c r="E10" s="1">
-        <v>2400</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>8100</v>
+        <v>8352</v>
       </c>
       <c r="C11" s="1">
-        <v>81000</v>
+        <v>5012</v>
       </c>
       <c r="D11" s="1">
-        <v>81000</v>
+        <v>3341</v>
       </c>
       <c r="E11" s="1">
-        <v>3000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>9720</v>
+        <v>21197</v>
       </c>
       <c r="C12" s="1">
-        <v>97200</v>
+        <v>12719</v>
       </c>
       <c r="D12" s="1">
-        <v>97200</v>
+        <v>8479</v>
       </c>
       <c r="E12" s="1">
-        <v>3600</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>11340</v>
+        <v>31104</v>
       </c>
       <c r="C13" s="1">
-        <v>113400</v>
+        <v>18663</v>
       </c>
       <c r="D13" s="1">
-        <v>113400</v>
+        <v>12442</v>
       </c>
       <c r="E13" s="1">
-        <v>4200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>12960</v>
+        <v>43316</v>
       </c>
       <c r="C14" s="1">
-        <v>129600</v>
+        <v>25990</v>
       </c>
       <c r="D14" s="1">
-        <v>129600</v>
+        <v>17327</v>
       </c>
       <c r="E14" s="1">
-        <v>4800</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>14580</v>
+        <v>58061</v>
       </c>
       <c r="C15" s="1">
-        <v>145800</v>
+        <v>34837</v>
       </c>
       <c r="D15" s="1">
-        <v>145800</v>
+        <v>23225</v>
       </c>
       <c r="E15" s="1">
-        <v>5400</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>16200</v>
+        <v>75572</v>
       </c>
       <c r="C16" s="1">
-        <v>162000</v>
+        <v>45343</v>
       </c>
       <c r="D16" s="1">
-        <v>162000</v>
+        <v>30229</v>
       </c>
       <c r="E16" s="1">
-        <v>6000</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>21600</v>
+        <v>110096</v>
       </c>
       <c r="C17" s="1">
-        <v>216000</v>
+        <v>66058</v>
       </c>
       <c r="D17" s="1">
-        <v>216000</v>
+        <v>44039</v>
       </c>
       <c r="E17" s="1">
-        <v>6600</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>27000</v>
+        <v>134760</v>
       </c>
       <c r="C18" s="1">
-        <v>270000</v>
+        <v>80856</v>
       </c>
       <c r="D18" s="1">
-        <v>270000</v>
+        <v>53904</v>
       </c>
       <c r="E18" s="1">
-        <v>7200</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>32400</v>
+        <v>161244</v>
       </c>
       <c r="C19" s="1">
-        <v>324000</v>
+        <v>96747</v>
       </c>
       <c r="D19" s="1">
-        <v>324000</v>
+        <v>64498</v>
       </c>
       <c r="E19" s="1">
-        <v>7800</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>37800</v>
+        <v>187336</v>
       </c>
       <c r="C20" s="1">
-        <v>378000</v>
+        <v>112402</v>
       </c>
       <c r="D20" s="1">
-        <v>378000</v>
+        <v>74935</v>
       </c>
       <c r="E20" s="1">
-        <v>8400</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>43200</v>
+        <v>210824</v>
       </c>
       <c r="C21" s="1">
-        <v>432000</v>
+        <v>126495</v>
       </c>
       <c r="D21" s="1">
-        <v>432000</v>
+        <v>84330</v>
       </c>
       <c r="E21" s="1">
-        <v>9000</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>81000</v>
+        <v>355295</v>
       </c>
       <c r="C22" s="1">
-        <v>810000</v>
+        <v>213177</v>
       </c>
       <c r="D22" s="1">
-        <v>810000</v>
+        <v>142118</v>
       </c>
       <c r="E22" s="1">
-        <v>9600</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>388596</v>
+      </c>
+      <c r="C23" s="1">
+        <v>233158</v>
+      </c>
+      <c r="D23" s="1">
+        <v>155439</v>
+      </c>
+      <c r="E23" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>414962</v>
+      </c>
+      <c r="C24" s="1">
+        <v>248977</v>
+      </c>
+      <c r="D24" s="1">
+        <v>165985</v>
+      </c>
+      <c r="E24" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>473018</v>
+      </c>
+      <c r="C25" s="1">
+        <v>283811</v>
+      </c>
+      <c r="D25" s="1">
+        <v>189208</v>
+      </c>
+      <c r="E25" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>526664</v>
+      </c>
+      <c r="C26" s="1">
+        <v>315999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>210666</v>
+      </c>
+      <c r="E26" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>923110</v>
+      </c>
+      <c r="C27" s="1">
+        <v>553866</v>
+      </c>
+      <c r="D27" s="1">
+        <v>369244</v>
+      </c>
+      <c r="E27" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1023605</v>
+      </c>
+      <c r="C28" s="1">
+        <v>614163</v>
+      </c>
+      <c r="D28" s="1">
+        <v>409442</v>
+      </c>
+      <c r="E28" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1120613</v>
+      </c>
+      <c r="C29" s="1">
+        <v>672368</v>
+      </c>
+      <c r="D29" s="1">
+        <v>448246</v>
+      </c>
+      <c r="E29" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1212709</v>
+      </c>
+      <c r="C30" s="1">
+        <v>727626</v>
+      </c>
+      <c r="D30" s="1">
+        <v>485084</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1298468</v>
+      </c>
+      <c r="C31" s="1">
+        <v>779081</v>
+      </c>
+      <c r="D31" s="1">
+        <v>519388</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2194028</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1316417</v>
+      </c>
+      <c r="D32" s="1">
+        <v>877611</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2369642</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1421785</v>
+      </c>
+      <c r="D33" s="1">
+        <v>947857</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2543042</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1525825</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1017217</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2713110</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1627866</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1085244</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2878728</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1727237</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1151492</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4657224</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2794335</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1862890</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4981432</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2988860</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1992573</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5309012</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3185408</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2123605</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5639192</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3383516</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2255677</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8477500</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5086500</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3391000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
